--- a/algorithmes/request.xlsx
+++ b/algorithmes/request.xlsx
@@ -340,7 +340,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E3"/>
+  <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -348,30 +348,19 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>-1</v>
       </c>
       <c r="E2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/algorithmes/request.xlsx
+++ b/algorithmes/request.xlsx
@@ -340,13 +340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:E2"/>
+  <dimension ref="A2:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>-1</v>
       </c>
@@ -361,6 +361,21 @@
       </c>
       <c r="E2">
         <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
